--- a/inputs/area_calib.xlsx
+++ b/inputs/area_calib.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCFE73D-B3E2-4E50-91BE-273A08C62C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFDF3DC-EF78-4201-8001-47B42813D986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{59B4EB5B-337D-438F-9C32-8D149C92B367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{59B4EB5B-337D-438F-9C32-8D149C92B367}"/>
   </bookViews>
   <sheets>
     <sheet name="Eagle" sheetId="2" r:id="rId1"/>
+    <sheet name="CHB-03" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CHB-03'!$A$1:$B$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
@@ -423,8 +427,8 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,4 +732,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120E1A0D-BDEE-46D6-9316-31EA056AD131}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>39233</v>
+      </c>
+      <c r="B2">
+        <v>34607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>39607</v>
+      </c>
+      <c r="B3">
+        <v>27893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>39764</v>
+      </c>
+      <c r="B4">
+        <v>21569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>39957</v>
+      </c>
+      <c r="B5">
+        <v>21356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>40086</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>40290</v>
+      </c>
+      <c r="B7">
+        <v>35627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>40353</v>
+      </c>
+      <c r="B8">
+        <v>30714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>40367</v>
+      </c>
+      <c r="B9">
+        <v>27249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>40449</v>
+      </c>
+      <c r="B10">
+        <v>22077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B11">
+        <v>36065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>40710</v>
+      </c>
+      <c r="B12">
+        <v>31977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40797</v>
+      </c>
+      <c r="B13">
+        <v>25397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B14">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41058</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>41109</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41294</v>
+      </c>
+      <c r="B17">
+        <v>35143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41379</v>
+      </c>
+      <c r="B18">
+        <v>27689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B20">
+        <v>29411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42465</v>
+      </c>
+      <c r="B21">
+        <v>33017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B22">
+        <v>39452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>